--- a/2.4.3/見積書_完成版.xlsx
+++ b/2.4.3/見積書_完成版.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="15780" windowHeight="17540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="880" windowWidth="15660" windowHeight="15240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" state="visible" r:id="rId1"/>
@@ -304,73 +304,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -396,6 +339,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -706,7 +706,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -723,7 +723,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="47">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>御　見　積　書</t>
         </is>
@@ -765,7 +765,7 @@
       <c r="X2" s="1" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1" s="47">
-      <c r="A3" s="19" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>株式会社ABCテスト</t>
         </is>
@@ -776,15 +776,15 @@
       <c r="E3" s="48" t="n"/>
       <c r="F3" s="48" t="n"/>
       <c r="G3" s="48" t="n"/>
-      <c r="H3" s="21" t="inlineStr">
+      <c r="H3" s="45" t="inlineStr">
         <is>
           <t>御中</t>
         </is>
       </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
-      <c r="L3" s="16" t="n"/>
-      <c r="N3" s="17" t="n"/>
+      <c r="L3" s="32" t="n"/>
+      <c r="N3" s="28" t="n"/>
       <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
@@ -797,15 +797,15 @@
     </row>
     <row r="4" ht="30" customHeight="1" s="47">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="16" t="n"/>
-      <c r="D4" s="22" t="n"/>
-      <c r="G4" s="16" t="n"/>
+      <c r="B4" s="32" t="n"/>
+      <c r="D4" s="46" t="n"/>
+      <c r="G4" s="32" t="n"/>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
-      <c r="L4" s="16" t="n"/>
-      <c r="N4" s="17" t="n"/>
+      <c r="L4" s="32" t="n"/>
+      <c r="N4" s="28" t="n"/>
       <c r="P4" s="1" t="n"/>
       <c r="Q4" s="1" t="n"/>
       <c r="R4" s="1" t="n"/>
@@ -843,13 +843,13 @@
       <c r="X5" s="1" t="n"/>
     </row>
     <row r="6" ht="24.75" customHeight="1" s="47">
-      <c r="A6" s="23" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>件名：</t>
         </is>
       </c>
       <c r="B6" s="49" t="n"/>
-      <c r="C6" s="25" t="inlineStr">
+      <c r="C6" s="42" t="inlineStr">
         <is>
           <t>Python学習コンテンツ</t>
         </is>
@@ -861,7 +861,7 @@
       <c r="H6" s="49" t="n"/>
       <c r="I6" s="49" t="n"/>
       <c r="J6" s="1" t="n"/>
-      <c r="K6" s="16" t="inlineStr">
+      <c r="K6" s="32" t="inlineStr">
         <is>
           <t>Python学習株式会社</t>
         </is>
@@ -884,12 +884,12 @@
     </row>
     <row r="7" ht="19.5" customHeight="1" s="47">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>下記のとおり、御見積もり申し上げます。</t>
         </is>
       </c>
-      <c r="K7" s="16" t="inlineStr">
+      <c r="K7" s="32" t="inlineStr">
         <is>
           <t>〒111-2222</t>
         </is>
@@ -919,7 +919,7 @@
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
-      <c r="K8" s="16" t="inlineStr">
+      <c r="K8" s="32" t="inlineStr">
         <is>
           <t>東京都○○区○○1-2-3</t>
         </is>
@@ -949,7 +949,7 @@
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="K9" s="16" t="n"/>
+      <c r="K9" s="32" t="n"/>
       <c r="P9" s="1" t="n"/>
       <c r="Q9" s="1" t="inlineStr">
         <is>
@@ -965,12 +965,12 @@
       <c r="X9" s="1" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" s="47">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>納期：</t>
         </is>
       </c>
-      <c r="C10" s="27" t="inlineStr">
+      <c r="C10" s="39" t="inlineStr">
         <is>
           <t>別途ご相談</t>
         </is>
@@ -982,12 +982,12 @@
       <c r="H10" s="48" t="n"/>
       <c r="I10" s="48" t="n"/>
       <c r="J10" s="1" t="n"/>
-      <c r="K10" s="28" t="inlineStr">
+      <c r="K10" s="33" t="inlineStr">
         <is>
           <t>TEL：</t>
         </is>
       </c>
-      <c r="M10" s="16" t="inlineStr">
+      <c r="M10" s="32" t="inlineStr">
         <is>
           <t>111-2222</t>
         </is>
@@ -1007,12 +1007,12 @@
       <c r="X10" s="1" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" s="47">
-      <c r="A11" s="26" t="inlineStr">
+      <c r="A11" s="40" t="inlineStr">
         <is>
           <t>支払条件：</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>月末締め翌月末払い</t>
         </is>
@@ -1024,12 +1024,12 @@
       <c r="H11" s="48" t="n"/>
       <c r="I11" s="48" t="n"/>
       <c r="J11" s="1" t="n"/>
-      <c r="K11" s="28" t="inlineStr">
+      <c r="K11" s="33" t="inlineStr">
         <is>
           <t>FAX：</t>
         </is>
       </c>
-      <c r="M11" s="16" t="inlineStr">
+      <c r="M11" s="32" t="inlineStr">
         <is>
           <t>111-3333</t>
         </is>
@@ -1045,12 +1045,12 @@
       <c r="X11" s="1" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" s="47">
-      <c r="A12" s="26" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>有効期限：</t>
         </is>
       </c>
-      <c r="C12" s="27" t="inlineStr">
+      <c r="C12" s="39" t="inlineStr">
         <is>
           <t>御見積後2週間</t>
         </is>
@@ -1062,12 +1062,12 @@
       <c r="H12" s="48" t="n"/>
       <c r="I12" s="48" t="n"/>
       <c r="J12" s="1" t="n"/>
-      <c r="K12" s="28" t="inlineStr">
+      <c r="K12" s="33" t="inlineStr">
         <is>
           <t>E-Mail：</t>
         </is>
       </c>
-      <c r="M12" s="16" t="inlineStr">
+      <c r="M12" s="32" t="inlineStr">
         <is>
           <t>test@test.com</t>
         </is>
@@ -1093,12 +1093,12 @@
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
-      <c r="K13" s="28" t="inlineStr">
+      <c r="K13" s="33" t="inlineStr">
         <is>
           <t>担当：</t>
         </is>
       </c>
-      <c r="M13" s="16" t="inlineStr">
+      <c r="M13" s="32" t="inlineStr">
         <is>
           <t>田中</t>
         </is>
@@ -1124,11 +1124,11 @@
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
-      <c r="K14" s="28" t="n"/>
-      <c r="L14" s="28" t="n"/>
-      <c r="M14" s="16" t="n"/>
-      <c r="N14" s="16" t="n"/>
-      <c r="O14" s="16" t="n"/>
+      <c r="K14" s="33" t="n"/>
+      <c r="L14" s="33" t="n"/>
+      <c r="M14" s="32" t="n"/>
+      <c r="N14" s="32" t="n"/>
+      <c r="O14" s="32" t="n"/>
       <c r="P14" s="1" t="n"/>
       <c r="Q14" s="1" t="n"/>
       <c r="R14" s="1" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="X14" s="1" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1" s="47">
-      <c r="A15" s="32" t="inlineStr">
+      <c r="A15" s="34" t="inlineStr">
         <is>
           <t>合計金額</t>
         </is>
@@ -1160,8 +1160,8 @@
         </is>
       </c>
       <c r="I15" s="49" t="n"/>
-      <c r="J15" s="28" t="n"/>
-      <c r="M15" s="35" t="n"/>
+      <c r="J15" s="33" t="n"/>
+      <c r="M15" s="38" t="n"/>
       <c r="P15" s="1" t="n"/>
       <c r="Q15" s="1" t="n"/>
       <c r="R15" s="1" t="n"/>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="K17" s="53" t="n"/>
-      <c r="L17" s="29" t="inlineStr">
+      <c r="L17" s="16" t="inlineStr">
         <is>
           <t>単価</t>
         </is>
@@ -1280,7 +1280,7 @@
         <f>J18*L18</f>
         <v/>
       </c>
-      <c r="O18" s="31" t="inlineStr">
+      <c r="O18" s="17" t="inlineStr">
         <is>
           <t>円</t>
         </is>
@@ -1331,7 +1331,7 @@
         <f>J19*L19</f>
         <v/>
       </c>
-      <c r="O19" s="31" t="inlineStr">
+      <c r="O19" s="17" t="inlineStr">
         <is>
           <t>円</t>
         </is>
@@ -1382,7 +1382,7 @@
         <f>J20*L20</f>
         <v/>
       </c>
-      <c r="O20" s="31" t="inlineStr">
+      <c r="O20" s="17" t="inlineStr">
         <is>
           <t>円</t>
         </is>
@@ -1412,7 +1412,7 @@
       <c r="L21" s="12" t="n"/>
       <c r="M21" s="30" t="n"/>
       <c r="N21" s="15" t="n"/>
-      <c r="O21" s="31" t="n"/>
+      <c r="O21" s="17" t="n"/>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1438,7 +1438,7 @@
       <c r="L22" s="12" t="n"/>
       <c r="M22" s="30" t="n"/>
       <c r="N22" s="15" t="n"/>
-      <c r="O22" s="31" t="n"/>
+      <c r="O22" s="17" t="n"/>
       <c r="P22" s="1" t="n"/>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1464,7 +1464,7 @@
       <c r="L23" s="12" t="n"/>
       <c r="M23" s="30" t="n"/>
       <c r="N23" s="15" t="n"/>
-      <c r="O23" s="31" t="n"/>
+      <c r="O23" s="17" t="n"/>
       <c r="P23" s="1" t="n"/>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="L24" s="12" t="n"/>
       <c r="M24" s="30" t="n"/>
       <c r="N24" s="15" t="n"/>
-      <c r="O24" s="31" t="n"/>
+      <c r="O24" s="17" t="n"/>
       <c r="P24" s="1" t="n"/>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -1516,7 +1516,7 @@
       <c r="L25" s="12" t="n"/>
       <c r="M25" s="30" t="n"/>
       <c r="N25" s="15" t="n"/>
-      <c r="O25" s="31" t="n"/>
+      <c r="O25" s="17" t="n"/>
       <c r="P25" s="1" t="n"/>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
@@ -1542,7 +1542,7 @@
       <c r="L26" s="12" t="n"/>
       <c r="M26" s="30" t="n"/>
       <c r="N26" s="15" t="n"/>
-      <c r="O26" s="31" t="n"/>
+      <c r="O26" s="17" t="n"/>
       <c r="P26" s="1" t="n"/>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -1568,7 +1568,7 @@
       <c r="L27" s="12" t="n"/>
       <c r="M27" s="30" t="n"/>
       <c r="N27" s="15" t="n"/>
-      <c r="O27" s="31" t="n"/>
+      <c r="O27" s="17" t="n"/>
       <c r="P27" s="1" t="n"/>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
@@ -1594,7 +1594,7 @@
       <c r="L28" s="12" t="n"/>
       <c r="M28" s="30" t="n"/>
       <c r="N28" s="15" t="n"/>
-      <c r="O28" s="31" t="n"/>
+      <c r="O28" s="17" t="n"/>
       <c r="P28" s="1" t="n"/>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
@@ -1620,7 +1620,7 @@
       <c r="L29" s="12" t="n"/>
       <c r="M29" s="30" t="n"/>
       <c r="N29" s="15" t="n"/>
-      <c r="O29" s="31" t="n"/>
+      <c r="O29" s="17" t="n"/>
       <c r="P29" s="1" t="n"/>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
@@ -1632,15 +1632,15 @@
       <c r="X29" s="1" t="n"/>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="47">
-      <c r="A30" s="16" t="n"/>
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="16" t="n"/>
-      <c r="D30" s="16" t="n"/>
-      <c r="E30" s="16" t="n"/>
-      <c r="F30" s="16" t="n"/>
-      <c r="G30" s="16" t="n"/>
-      <c r="H30" s="16" t="n"/>
-      <c r="I30" s="16" t="n"/>
+      <c r="A30" s="32" t="n"/>
+      <c r="B30" s="32" t="n"/>
+      <c r="C30" s="32" t="n"/>
+      <c r="D30" s="32" t="n"/>
+      <c r="E30" s="32" t="n"/>
+      <c r="F30" s="32" t="n"/>
+      <c r="G30" s="32" t="n"/>
+      <c r="H30" s="32" t="n"/>
+      <c r="I30" s="32" t="n"/>
       <c r="J30" s="5" t="inlineStr">
         <is>
           <t>小計</t>
@@ -1653,7 +1653,7 @@
         <f>sum(N18:N29)</f>
         <v/>
       </c>
-      <c r="O30" s="31" t="inlineStr">
+      <c r="O30" s="17" t="inlineStr">
         <is>
           <t>円</t>
         </is>
@@ -1669,15 +1669,15 @@
       <c r="X30" s="1" t="n"/>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="47">
-      <c r="A31" s="16" t="n"/>
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n"/>
-      <c r="F31" s="16" t="n"/>
-      <c r="G31" s="16" t="n"/>
-      <c r="H31" s="16" t="n"/>
-      <c r="I31" s="16" t="n"/>
+      <c r="A31" s="32" t="n"/>
+      <c r="B31" s="32" t="n"/>
+      <c r="C31" s="32" t="n"/>
+      <c r="D31" s="32" t="n"/>
+      <c r="E31" s="32" t="n"/>
+      <c r="F31" s="32" t="n"/>
+      <c r="G31" s="32" t="n"/>
+      <c r="H31" s="32" t="n"/>
+      <c r="I31" s="32" t="n"/>
       <c r="J31" s="5" t="inlineStr">
         <is>
           <t>消費税</t>
@@ -1701,11 +1701,11 @@
       <c r="X31" s="1" t="n"/>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="47">
-      <c r="A32" s="16" t="n"/>
-      <c r="B32" s="16" t="n"/>
-      <c r="G32" s="16" t="n"/>
-      <c r="H32" s="16" t="n"/>
-      <c r="I32" s="16" t="n"/>
+      <c r="A32" s="32" t="n"/>
+      <c r="B32" s="32" t="n"/>
+      <c r="G32" s="32" t="n"/>
+      <c r="H32" s="32" t="n"/>
+      <c r="I32" s="32" t="n"/>
       <c r="J32" s="5" t="inlineStr">
         <is>
           <t>合計</t>
@@ -1718,7 +1718,7 @@
         <f>N30*1.1</f>
         <v/>
       </c>
-      <c r="O32" s="31" t="inlineStr">
+      <c r="O32" s="17" t="inlineStr">
         <is>
           <t>円</t>
         </is>
@@ -1734,21 +1734,21 @@
       <c r="X32" s="1" t="n"/>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="47">
-      <c r="A33" s="16" t="n"/>
-      <c r="B33" s="38" t="n"/>
+      <c r="A33" s="32" t="n"/>
+      <c r="B33" s="18" t="n"/>
       <c r="C33" s="48" t="n"/>
       <c r="D33" s="48" t="n"/>
       <c r="E33" s="48" t="n"/>
       <c r="F33" s="48" t="n"/>
-      <c r="G33" s="16" t="n"/>
-      <c r="H33" s="16" t="n"/>
-      <c r="I33" s="16" t="n"/>
-      <c r="J33" s="16" t="n"/>
-      <c r="K33" s="16" t="n"/>
-      <c r="L33" s="16" t="n"/>
-      <c r="M33" s="16" t="n"/>
-      <c r="N33" s="16" t="n"/>
-      <c r="O33" s="16" t="n"/>
+      <c r="G33" s="32" t="n"/>
+      <c r="H33" s="32" t="n"/>
+      <c r="I33" s="32" t="n"/>
+      <c r="J33" s="32" t="n"/>
+      <c r="K33" s="32" t="n"/>
+      <c r="L33" s="32" t="n"/>
+      <c r="M33" s="32" t="n"/>
+      <c r="N33" s="32" t="n"/>
+      <c r="O33" s="32" t="n"/>
       <c r="P33" s="1" t="n"/>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
@@ -26885,6 +26885,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="A34:B37"/>
@@ -26899,51 +26944,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="K18:K29" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
